--- a/Output/AllModels_sensitivitySupport_2000.xlsx
+++ b/Output/AllModels_sensitivitySupport_2000.xlsx
@@ -1,1408 +1,1415 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kueng\DataAnalysis\02TimeAndTiesControl_updatedBRMS\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBA1837-0667-4C3D-B895-7E98B8F18DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="461">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mood Gaussian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Ordinal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Dichotome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.75***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[31.94, 42.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.23***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[101.26, 125.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.47, 3.89]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.17,   0.67]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.20,  0.38]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.94,  1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.98,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.08, 0.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.76,     1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.74,   1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,  1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.05, 0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.89,     1.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.90,   1.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,  1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.89,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   1.14,     2.69]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.05,   4.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.87,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.92,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.13, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.66,     1.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.56,   4.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.90,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.96,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.07, 0.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   1.02,     1.61]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.06,   1.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,  1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.96,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.01, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.73,     1.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.63,   1.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.23,  1.48]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.01,   1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.01, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.51,     1.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.50,   1.71]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,  1.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.99,   1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.59,     1.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.51,   1.65]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,  1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.91,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.15, 0.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.70,     2.85]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.72,   3.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.05,  1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.02,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.05, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.71,     0.94]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.70,   0.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.02,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.99,   1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.01, 0.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.74,     1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.73,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is a Weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JITAI received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Days post skilled support intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.67,  1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.80,   1.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.32, 0.79]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.43,     3.80]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.67,   8.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.72,  1.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.73,   1.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.25, 0.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.40,     5.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.54,   8.93]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,  1.79]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.78,   1.38]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.80, 0.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   1.18,    10.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.98**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2.54, 189.95]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.64,  1.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.73,   1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.88, 0.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.38,     4.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.22,  25.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,  1.94]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.58,   1.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.65, 0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.36,     9.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.18,  10.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.68,  1.82]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.73,   1.75]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.69, 0.96]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.02,     0.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01,   0.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.02,  1.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.98,   1.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.00, 0.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.38,     1.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.39,   1.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,  1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.92,   1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.24, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.56,     1.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.46,   1.32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference study group 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference study group 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.06,  1.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.94,  1.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.65,  1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.10,  2.66]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.63,  1.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.94,  1.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Own actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 7.90, 11.96]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Partner actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,  1.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,  1.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.56,  1.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.28,  1.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Is a Weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu JITAI received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Days post skilled support intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.58,  2.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.52,  2.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.15,  0.85]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.24,  1.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.20,  2.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.41,  4.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,  1.66]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.10,  1.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Difference study group 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Difference study group 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48, 0.80]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.47, 1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.76, 1.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hurdle Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.57, 1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.07, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.14, 1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.06, 1.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.11, 2.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.27]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 1.54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 2.81]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.56]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.38]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.79]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.27, 0.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.52]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.64, 0.69]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.93, 0.97]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="461">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t>Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t>Mood Gaussian</t>
+  </si>
+  <si>
+    <t>Reactance Ordinal</t>
+  </si>
+  <si>
+    <t>Reactance Dichotome</t>
+  </si>
+  <si>
+    <t>exp(Est.)</t>
+  </si>
+  <si>
+    <t>95% CI</t>
+  </si>
+  <si>
+    <t>pd</t>
+  </si>
+  <si>
+    <t>Est.</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>36.75***</t>
+  </si>
+  <si>
+    <t>[31.94, 42.13]</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>112.23***</t>
+  </si>
+  <si>
+    <t>[101.26, 125.45]</t>
+  </si>
+  <si>
+    <t>3.68***</t>
+  </si>
+  <si>
+    <t>[ 3.47, 3.89]</t>
+  </si>
+  <si>
+    <t>0.33**</t>
+  </si>
+  <si>
+    <t>[0.17,   0.67]</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>Hurdle Intercept</t>
+  </si>
+  <si>
+    <t>0.27***</t>
+  </si>
+  <si>
+    <t>[ 0.20,  0.38]</t>
+  </si>
+  <si>
+    <t>Conditional Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>[ 0.94,  1.05]</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>[  0.98,   1.04]</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>[-0.08, 0.00]</t>
+  </si>
+  <si>
+    <t>0.966</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>[   0.76,     1.09]</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>[0.74,   1.12]</t>
+  </si>
+  <si>
+    <t>0.822</t>
+  </si>
+  <si>
+    <t>Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>[ 0.96,  1.05]</t>
+  </si>
+  <si>
+    <t>0.536</t>
+  </si>
+  <si>
+    <t>0.688</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>[-0.05, 0.04]</t>
+  </si>
+  <si>
+    <t>0.589</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>[   0.89,     1.39]</t>
+  </si>
+  <si>
+    <t>0.848</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>[0.90,   1.72]</t>
+  </si>
+  <si>
+    <t>0.904</t>
+  </si>
+  <si>
+    <t>Daily pressure experienced</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>[ 0.83,  1.01]</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>[  0.89,   1.02]</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>[-0.14, 0.07]</t>
+  </si>
+  <si>
+    <t>0.739</t>
+  </si>
+  <si>
+    <t>1.85*</t>
+  </si>
+  <si>
+    <t>[   1.14,     2.69]</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>1.98*</t>
+  </si>
+  <si>
+    <t>[1.05,   4.25]</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.87,  1.03]</t>
+  </si>
+  <si>
+    <t>0.883</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>[  0.92,   1.05]</t>
+  </si>
+  <si>
+    <t>0.733</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>[-0.13, 0.08]</t>
+  </si>
+  <si>
+    <t>0.671</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>[   0.66,     1.99]</t>
+  </si>
+  <si>
+    <t>0.758</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>[0.56,   4.47]</t>
+  </si>
+  <si>
+    <t>0.750</t>
+  </si>
+  <si>
+    <t>Daily pushing experienced</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>[ 0.90,  1.03]</t>
+  </si>
+  <si>
+    <t>0.859</t>
+  </si>
+  <si>
+    <t>[  0.96,   1.06]</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>[-0.07, 0.05]</t>
+  </si>
+  <si>
+    <t>0.639</t>
+  </si>
+  <si>
+    <t>1.27*</t>
+  </si>
+  <si>
+    <t>[   1.02,     1.61]</t>
+  </si>
+  <si>
+    <t>1.39*</t>
+  </si>
+  <si>
+    <t>[1.06,   1.86]</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t>Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.89,  1.01]</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>[  0.96,   1.04]</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>[-0.01, 0.13]</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>[   0.73,     1.23]</t>
+  </si>
+  <si>
+    <t>0.650</t>
+  </si>
+  <si>
+    <t>[0.63,   1.43]</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>Own actionplan</t>
+  </si>
+  <si>
+    <t>1.35***</t>
+  </si>
+  <si>
+    <t>[ 1.23,  1.48]</t>
+  </si>
+  <si>
+    <t>1.06*</t>
+  </si>
+  <si>
+    <t>[  1.01,   1.11]</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>0.09*</t>
+  </si>
+  <si>
+    <t>[ 0.01, 0.16]</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>[   0.51,     1.62]</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>[0.50,   1.71]</t>
+  </si>
+  <si>
+    <t>0.572</t>
+  </si>
+  <si>
+    <t>Partner actionplan</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>[ 0.96,  1.14]</t>
+  </si>
+  <si>
+    <t>[  0.99,   1.09]</t>
+  </si>
+  <si>
+    <t>0.931</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>[-0.14, 0.02]</t>
+  </si>
+  <si>
+    <t>0.936</t>
+  </si>
+  <si>
+    <t>[   0.59,     1.64]</t>
+  </si>
+  <si>
+    <t>0.532</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>[0.51,   1.65]</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>[ 0.89,  1.12]</t>
+  </si>
+  <si>
+    <t>0.535</t>
+  </si>
+  <si>
+    <t>[  0.91,   1.05]</t>
+  </si>
+  <si>
+    <t>0.763</t>
+  </si>
+  <si>
+    <t>0.26***</t>
+  </si>
+  <si>
+    <t>[ 0.15, 0.37]</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>[   0.70,     2.85]</t>
+  </si>
+  <si>
+    <t>0.837</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>[0.72,   3.43]</t>
+  </si>
+  <si>
+    <t>0.860</t>
+  </si>
+  <si>
+    <t>Daily weartime</t>
+  </si>
+  <si>
+    <t>1.00***</t>
+  </si>
+  <si>
+    <t>[  1.00,   1.00]</t>
+  </si>
+  <si>
+    <t>Daily support received</t>
+  </si>
+  <si>
+    <t>1.07***</t>
+  </si>
+  <si>
+    <t>[ 1.05,  1.10]</t>
+  </si>
+  <si>
+    <t>1.04***</t>
+  </si>
+  <si>
+    <t>[  1.02,   1.06]</t>
+  </si>
+  <si>
+    <t>0.08***</t>
+  </si>
+  <si>
+    <t>[ 0.05, 0.11]</t>
+  </si>
+  <si>
+    <t>0.82**</t>
+  </si>
+  <si>
+    <t>[   0.71,     0.94]</t>
+  </si>
+  <si>
+    <t>0.997</t>
+  </si>
+  <si>
+    <t>0.83*</t>
+  </si>
+  <si>
+    <t>[0.70,   0.97]</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>Daily support provided (partner's view)</t>
+  </si>
+  <si>
+    <t>1.05***</t>
+  </si>
+  <si>
+    <t>[ 1.02,  1.08]</t>
+  </si>
+  <si>
+    <t>[  0.99,   1.03]</t>
+  </si>
+  <si>
+    <t>0.907</t>
+  </si>
+  <si>
+    <t>0.04*</t>
+  </si>
+  <si>
+    <t>[ 0.01, 0.06]</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>[   0.74,     1.00]</t>
+  </si>
+  <si>
+    <t>0.973</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>[0.73,   1.02]</t>
+  </si>
+  <si>
+    <t>0.957</t>
+  </si>
+  <si>
+    <t>Is a Weekend</t>
+  </si>
+  <si>
+    <t>JITAI received</t>
+  </si>
+  <si>
+    <t>Days post skilled support intervention</t>
+  </si>
+  <si>
+    <t>Conditional Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>[ 0.67,  1.28]</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>[  0.80,   1.40]</t>
+  </si>
+  <si>
+    <t>0.651</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>[-0.32, 0.79]</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>[   0.43,     3.80]</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>[0.67,   8.02]</t>
+  </si>
+  <si>
+    <t>0.903</t>
+  </si>
+  <si>
+    <t>Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.72,  1.35]</t>
+  </si>
+  <si>
+    <t>0.531</t>
+  </si>
+  <si>
+    <t>[  0.73,   1.31]</t>
+  </si>
+  <si>
+    <t>0.570</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>[-0.25, 0.87]</t>
+  </si>
+  <si>
+    <t>0.858</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>[   0.40,     5.16]</t>
+  </si>
+  <si>
+    <t>0.701</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>[0.54,   8.93]</t>
+  </si>
+  <si>
+    <t>0.856</t>
+  </si>
+  <si>
+    <t>Mean pressure experienced</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>[ 0.89,  1.79]</t>
+  </si>
+  <si>
+    <t>0.910</t>
+  </si>
+  <si>
+    <t>[  0.78,   1.38]</t>
+  </si>
+  <si>
+    <t>0.600</t>
+  </si>
+  <si>
+    <t>-0.26</t>
+  </si>
+  <si>
+    <t>[-0.80, 0.30]</t>
+  </si>
+  <si>
+    <t>3.46*</t>
+  </si>
+  <si>
+    <t>[   1.18,    10.37]</t>
+  </si>
+  <si>
+    <t>19.98**</t>
+  </si>
+  <si>
+    <t>[2.54, 189.95]</t>
+  </si>
+  <si>
+    <t>Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.64,  1.34]</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>[  0.73,   1.28]</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>-0.33</t>
+  </si>
+  <si>
+    <t>[-0.88, 0.22]</t>
+  </si>
+  <si>
+    <t>[   0.38,     4.31]</t>
+  </si>
+  <si>
+    <t>0.672</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>[0.22,  25.46]</t>
+  </si>
+  <si>
+    <t>0.780</t>
+  </si>
+  <si>
+    <t>Mean pushing experienced</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>[ 0.74,  1.94]</t>
+  </si>
+  <si>
+    <t>0.767</t>
+  </si>
+  <si>
+    <t>[  0.58,   1.42]</t>
+  </si>
+  <si>
+    <t>0.684</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>[-0.65, 0.99]</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>[   0.36,     9.06]</t>
+  </si>
+  <si>
+    <t>0.761</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>[0.18,  10.21]</t>
+  </si>
+  <si>
+    <t>Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>[ 0.68,  1.82]</t>
+  </si>
+  <si>
+    <t>0.653</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>[  0.73,   1.75]</t>
+  </si>
+  <si>
+    <t>0.676</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>[-0.69, 0.96]</t>
+  </si>
+  <si>
+    <t>0.13*</t>
+  </si>
+  <si>
+    <t>[   0.02,     0.83]</t>
+  </si>
+  <si>
+    <t>0.983</t>
+  </si>
+  <si>
+    <t>0.10*</t>
+  </si>
+  <si>
+    <t>[0.01,   0.86]</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>Mean weartime</t>
+  </si>
+  <si>
+    <t>0.932</t>
+  </si>
+  <si>
+    <t>Mean support received</t>
+  </si>
+  <si>
+    <t>1.12*</t>
+  </si>
+  <si>
+    <t>[ 1.02,  1.22]</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>[  0.98,   1.16]</t>
+  </si>
+  <si>
+    <t>0.935</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>[ 0.00, 0.31]</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>[   0.38,     1.25]</t>
+  </si>
+  <si>
+    <t>0.900</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>[0.39,   1.41]</t>
+  </si>
+  <si>
+    <t>0.818</t>
+  </si>
+  <si>
+    <t>Mean support provided (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.88,  1.06]</t>
+  </si>
+  <si>
+    <t>0.753</t>
+  </si>
+  <si>
+    <t>[  0.92,   1.09]</t>
+  </si>
+  <si>
+    <t>0.533</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>[-0.24, 0.07]</t>
+  </si>
+  <si>
+    <t>0.852</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>[   0.56,     1.36]</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>[0.46,   1.32]</t>
+  </si>
+  <si>
+    <t>0.823</t>
+  </si>
+  <si>
+    <t>Difference study group 2</t>
+  </si>
+  <si>
+    <t>Difference study group 3</t>
+  </si>
+  <si>
+    <t>Hurdle Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Hu Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.21**</t>
+  </si>
+  <si>
+    <t>[ 1.06,  1.40]</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>Hu Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>[ 0.94,  1.25]</t>
+  </si>
+  <si>
+    <t>0.879</t>
+  </si>
+  <si>
+    <t>Hu Daily pressure experienced</t>
+  </si>
+  <si>
+    <t>[ 0.65,  1.28]</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>Hu Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.63*</t>
+  </si>
+  <si>
+    <t>[ 1.10,  2.66]</t>
+  </si>
+  <si>
+    <t>Hu Daily pushing experienced</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>[ 0.63,  1.15]</t>
+  </si>
+  <si>
+    <t>0.887</t>
+  </si>
+  <si>
+    <t>Hu Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.94,  1.53]</t>
+  </si>
+  <si>
+    <t>Hu Own actionplan</t>
+  </si>
+  <si>
+    <t>9.73***</t>
+  </si>
+  <si>
+    <t>[ 7.90, 11.96]</t>
+  </si>
+  <si>
+    <t>Hu Partner actionplan</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>[ 0.83,  1.25]</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>Hu Day</t>
+  </si>
+  <si>
+    <t>[ 0.69,  1.26]</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>Hu Daily weartime</t>
+  </si>
+  <si>
+    <t>Hu Daily support received</t>
+  </si>
+  <si>
+    <t>1.70***</t>
+  </si>
+  <si>
+    <t>[ 1.56,  1.86]</t>
+  </si>
+  <si>
+    <t>Hu Daily support provided (partner's view)</t>
+  </si>
+  <si>
+    <t>1.40***</t>
+  </si>
+  <si>
+    <t>[ 1.28,  1.53]</t>
+  </si>
+  <si>
+    <t>Hu Is a Weekend</t>
+  </si>
+  <si>
+    <t>Hu JITAI received</t>
+  </si>
+  <si>
+    <t>Hu Days post skilled support intervention</t>
+  </si>
+  <si>
+    <t>Hurdle Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Hu Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>[ 0.58,  2.74]</t>
+  </si>
+  <si>
+    <t>0.743</t>
+  </si>
+  <si>
+    <t>Hu Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.52,  2.49]</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>Hu Mean pressure experienced</t>
+  </si>
+  <si>
+    <t>0.36*</t>
+  </si>
+  <si>
+    <t>[ 0.15,  0.85]</t>
+  </si>
+  <si>
+    <t>Hu Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>[ 0.24,  1.42]</t>
+  </si>
+  <si>
+    <t>0.872</t>
+  </si>
+  <si>
+    <t>Hu Mean pushing experienced</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>[ 0.20,  2.20]</t>
+  </si>
+  <si>
+    <t>0.762</t>
+  </si>
+  <si>
+    <t>Hu Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>[ 0.41,  4.18]</t>
+  </si>
+  <si>
+    <t>Hu Mean weartime</t>
+  </si>
+  <si>
+    <t>Hu Mean support received</t>
+  </si>
+  <si>
+    <t>[ 1.00,  1.66]</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>Hu Mean support provided (partner's view)</t>
+  </si>
+  <si>
+    <t>1.39**</t>
+  </si>
+  <si>
+    <t>[ 1.10,  1.78]</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>Hu Difference study group 2</t>
+  </si>
+  <si>
+    <t>Hu Difference study group 3</t>
+  </si>
+  <si>
+    <t>Random Effects</t>
+  </si>
+  <si>
+    <t>sd(Intercept)</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>[0.23, 0.42]</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>[0.48, 0.80]</t>
+  </si>
+  <si>
+    <t>[0.47, 1.30]</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>[0.76, 1.83]</t>
+  </si>
+  <si>
+    <t>sd(Hurdle Intercept)</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>[0.57, 1.03]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>[0.07, 0.16]</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>[0.01, 0.46]</t>
+  </si>
+  <si>
+    <t>[0.02, 0.55]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>[0.05, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.03, 0.09]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.12]</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>[0.01, 0.55]</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>[0.14, 1.04]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t>[0.00, 0.21]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>[0.00, 0.25]</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>[0.06, 1.17]</t>
+  </si>
+  <si>
+    <t>[0.11, 2.35]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>[0.00, 0.17]</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.27]</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>[0.02, 1.54]</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>[0.04, 2.81]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t>[0.01, 0.17]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>[0.02, 0.56]</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>[0.02, 0.64]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>[0.01, 0.14]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.57]</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>[0.01, 1.00]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>[0.01, 0.36]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>[0.01, 0.38]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>[0.01, 0.79]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>[0.01, 1.11]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t>[0.27, 0.97]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>[0.01, 0.52]</t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>[0.64, 0.69]</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t>[0.93, 0.97]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1416,16 +1423,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -1445,20 +1452,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1474,20 +1489,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1769,64 +1799,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="40.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.2265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.2265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.2265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.2265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.2265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1876,7 +1926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1920,7 +1970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1946,58 +1996,58 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2046,8 +2096,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2096,8 +2146,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2146,8 +2196,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2196,8 +2246,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A10" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2246,8 +2296,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A11" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2296,8 +2346,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A12" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2346,8 +2396,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A13" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2396,8 +2446,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A14" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2446,8 +2496,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A15" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B15" s="1"/>
@@ -2472,8 +2522,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A16" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2522,8 +2572,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A17" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2572,8 +2622,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A18" s="7" t="s">
         <v>182</v>
       </c>
       <c r="B18" s="1"/>
@@ -2592,8 +2642,8 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A19" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B19" s="1"/>
@@ -2612,8 +2662,8 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A20" s="7" t="s">
         <v>184</v>
       </c>
       <c r="B20" s="1"/>
@@ -2632,58 +2682,58 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A21" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" s="11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A22" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2732,8 +2782,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A23" s="7" t="s">
         <v>202</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2782,8 +2832,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A24" s="7" t="s">
         <v>216</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2832,8 +2882,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A25" s="7" t="s">
         <v>228</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2882,8 +2932,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A26" s="7" t="s">
         <v>240</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2932,8 +2982,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A27" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2982,8 +3032,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A28" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B28" s="1"/>
@@ -3008,8 +3058,8 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A29" s="7" t="s">
         <v>271</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3058,8 +3108,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A30" s="7" t="s">
         <v>286</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3108,8 +3158,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A31" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B31" s="1"/>
@@ -3128,8 +3178,8 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A32" s="7" t="s">
         <v>300</v>
       </c>
       <c r="B32" s="1"/>
@@ -3148,58 +3198,58 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A33" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P33" s="11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A34" s="7" t="s">
         <v>302</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -3224,8 +3274,8 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A35" s="7" t="s">
         <v>306</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3250,8 +3300,8 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A36" s="7" t="s">
         <v>310</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3276,8 +3326,8 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A37" s="7" t="s">
         <v>313</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -3302,8 +3352,8 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A38" s="7" t="s">
         <v>316</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3328,8 +3378,8 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A39" s="7" t="s">
         <v>320</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3354,8 +3404,8 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A40" s="7" t="s">
         <v>322</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -3380,8 +3430,8 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A41" s="7" t="s">
         <v>325</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3406,8 +3456,8 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A42" s="7" t="s">
         <v>329</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3432,8 +3482,8 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A43" s="7" t="s">
         <v>332</v>
       </c>
       <c r="B43" s="1"/>
@@ -3452,8 +3502,8 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A44" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -3478,8 +3528,8 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A45" s="7" t="s">
         <v>336</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -3504,8 +3554,8 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A46" s="7" t="s">
         <v>339</v>
       </c>
       <c r="B46" s="1"/>
@@ -3524,8 +3574,8 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A47" s="7" t="s">
         <v>340</v>
       </c>
       <c r="B47" s="1"/>
@@ -3544,8 +3594,8 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A48" s="7" t="s">
         <v>341</v>
       </c>
       <c r="B48" s="1"/>
@@ -3564,58 +3614,58 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A49" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="K49" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="N49" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="O49" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="P49" s="11" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A50" s="7" t="s">
         <v>343</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3640,8 +3690,8 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A51" s="7" t="s">
         <v>347</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3666,8 +3716,8 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A52" s="7" t="s">
         <v>350</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3692,8 +3742,8 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A53" s="7" t="s">
         <v>353</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3718,8 +3768,8 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A54" s="7" t="s">
         <v>357</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -3744,8 +3794,8 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A55" s="7" t="s">
         <v>361</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -3770,8 +3820,8 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A56" s="7" t="s">
         <v>364</v>
       </c>
       <c r="B56" s="1"/>
@@ -3790,8 +3840,8 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A57" s="7" t="s">
         <v>365</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -3816,8 +3866,8 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A58" s="7" t="s">
         <v>368</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -3842,8 +3892,8 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A59" s="7" t="s">
         <v>372</v>
       </c>
       <c r="B59" s="1"/>
@@ -3862,8 +3912,8 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
     </row>
-    <row r="60">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A60" s="7" t="s">
         <v>373</v>
       </c>
       <c r="B60" s="1"/>
@@ -3882,58 +3932,58 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
     </row>
-    <row r="61">
-      <c r="A61" s="7" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A61" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="K61" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L61" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="N61" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="O61" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="P61" s="11" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A62" s="7" t="s">
         <v>375</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -3972,8 +4022,8 @@
       </c>
       <c r="P62" s="1"/>
     </row>
-    <row r="63">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A63" s="7" t="s">
         <v>385</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -3996,8 +4046,8 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
     </row>
-    <row r="64">
-      <c r="A64" s="8" t="s">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A64" s="7" t="s">
         <v>388</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -4036,8 +4086,8 @@
       </c>
       <c r="P64" s="1"/>
     </row>
-    <row r="65">
-      <c r="A65" s="8" t="s">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A65" s="7" t="s">
         <v>398</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -4076,8 +4126,8 @@
       </c>
       <c r="P65" s="1"/>
     </row>
-    <row r="66">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A66" s="7" t="s">
         <v>407</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -4116,8 +4166,8 @@
       </c>
       <c r="P66" s="1"/>
     </row>
-    <row r="67">
-      <c r="A67" s="8" t="s">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A67" s="7" t="s">
         <v>415</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -4156,8 +4206,8 @@
       </c>
       <c r="P67" s="1"/>
     </row>
-    <row r="68">
-      <c r="A68" s="8" t="s">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A68" s="7" t="s">
         <v>424</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -4196,8 +4246,8 @@
       </c>
       <c r="P68" s="1"/>
     </row>
-    <row r="69">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A69" s="7" t="s">
         <v>431</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -4236,8 +4286,8 @@
       </c>
       <c r="P69" s="1"/>
     </row>
-    <row r="70">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A70" s="7" t="s">
         <v>438</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -4260,8 +4310,8 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A71" s="7" t="s">
         <v>441</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -4284,8 +4334,8 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
     </row>
-    <row r="72">
-      <c r="A72" s="8" t="s">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A72" s="7" t="s">
         <v>444</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -4308,8 +4358,8 @@
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
     </row>
-    <row r="73">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A73" s="7" t="s">
         <v>447</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -4332,8 +4382,8 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
     </row>
-    <row r="74">
-      <c r="A74" s="8" t="s">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A74" s="7" t="s">
         <v>450</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -4356,8 +4406,8 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
     </row>
-    <row r="75">
-      <c r="A75" s="8" t="s">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A75" s="7" t="s">
         <v>452</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -4380,58 +4430,58 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
     </row>
-    <row r="76">
-      <c r="A76" s="7" t="s">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A76" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I76" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="K76" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="L76" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="M76" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="N76" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="O76" s="1" t="s">
+      <c r="O76" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="P76" s="1" t="s">
+      <c r="P76" s="11" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="9" t="s">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A77" s="8" t="s">
         <v>455</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -4462,60 +4512,60 @@
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
     </row>
-    <row r="78">
-      <c r="A78" s="8"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="8"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="8"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="8"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="8"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="8"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="8"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="8"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="8"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="8"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="8"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="8"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="8"/>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A78" s="7"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A80" s="7"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A81" s="7"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A82" s="7"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A83" s="7"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A90" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A76:P76"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A33:P33"/>
+    <mergeCell ref="A49:P49"/>
+    <mergeCell ref="A61:P61"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="A49:P49"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="A76:P76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>